--- a/gym_pybullet_drones/Aufgabenverteilung_F&E-Drohenrennen.xlsx
+++ b/gym_pybullet_drones/Aufgabenverteilung_F&E-Drohenrennen.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/floriantausch/Library/Mobile Documents/com~apple~CloudDocs/Referenzmaterial/Master-Studium/HKA Hochschule Karlsruhe Masterstudium Robotik und KI in der Produktion RKIM/F&amp;E Projekte/F&amp;E- Projekt 1 - Drohnenrennen/Github-Repo/gym-pybullet-drones/gym_pybullet_drones/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{918BEEBA-8B1A-6A4D-9D1C-064B4C1C4682}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E5CFCD2-D647-BC48-8532-066F2E66EB17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="160" yWindow="920" windowWidth="29920" windowHeight="18560" xr2:uid="{7B10B33D-B820-6040-9041-5C81E7D54BDC}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="33">
   <si>
     <t>Was?</t>
   </si>
@@ -70,12 +70,6 @@
     <t>Aufbau 20 verschiedener Simulationsumgebungen, evtl. Protoytyp/Konzept erstellen und dann mit Hansert besprechen, wie die Umgebungen ausschauen sollen</t>
   </si>
   <si>
-    <t>Verständnis Gymnasium-Trainingsumgebung und Herstellung Verbindung von Pybullet-Simulationsumgebung und RL-Algorithmus mit Belohnung</t>
-  </si>
-  <si>
-    <t>Algorithmus aufbauen</t>
-  </si>
-  <si>
     <t>Wie sollen Umgebungen ausschauen, wirkliche Labyrinthe, oder eher Hausumrisse? --&gt; Zielsetzung: An Haus orientierung, auch mal mit ein paar Dead-Ends, dass es aber auch in echt aufgebaut werden kann und ähnlich kompliziert ist --&gt; Gesamtfläche auf spätere Trainingsfläche münzen</t>
   </si>
   <si>
@@ -113,6 +107,34 @@
   </si>
   <si>
     <t>Erste Tests bebachten in einfacher Umgebung (Box mit Scheibe als Ziel)</t>
+  </si>
+  <si>
+    <t>Verständnis Gymnasium-Trainingsumgebung mit Pybullet von Pybullet-Simulationsumgebung und RL-Algorithmus mit Belohnung</t>
+  </si>
+  <si>
+    <t>Verständnis Gymnasium-Trainingsumgebung RL-Algorithmus mit Belohnung</t>
+  </si>
+  <si>
+    <t>einfachen Algorithmus aufbauen</t>
+  </si>
+  <si>
+    <t>Sensorwerte und Kollisionsüberwachung aufbuaen, ob das zur Drohne passt &amp; entsprechend bestraft wird</t>
+  </si>
+  <si>
+    <t>Wie können die Sensoren/Raumwerte genutzt werden, um die Belohnungsfunktion laufen lassen zu können? Wie kann eine Collision bestraft werden
+Prüfen, wie die min-Rage ist und was der Max-Wert-Ist und wie dann die Outputs sind</t>
+  </si>
+  <si>
+    <t>Alex</t>
+  </si>
+  <si>
+    <t>mit der anderen Gruppe abstimmen und auch Aufbau der Umgebungen planen</t>
+  </si>
+  <si>
+    <t>Florian</t>
+  </si>
+  <si>
+    <t>Montag, 18.11.24</t>
   </si>
 </sst>
 </file>
@@ -204,11 +226,14 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{6512A5BF-E460-7F44-A423-D26569A827E6}" name="Tabelle1" displayName="Tabelle1" ref="A4:H12" totalsRowShown="0">
-  <autoFilter ref="A4:H12" xr:uid="{6512A5BF-E460-7F44-A423-D26569A827E6}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A5:H12">
-    <sortCondition descending="1" ref="H5:H12"/>
-    <sortCondition ref="B5:B12"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{6512A5BF-E460-7F44-A423-D26569A827E6}" name="Tabelle1" displayName="Tabelle1" ref="A4:H14" totalsRowShown="0">
+  <autoFilter ref="A4:H14" xr:uid="{6512A5BF-E460-7F44-A423-D26569A827E6}">
+    <filterColumn colId="7">
+      <filters blank="1"/>
+    </filterColumn>
+  </autoFilter>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A6:H14">
+    <sortCondition ref="B4:B14"/>
   </sortState>
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{71C963A4-6507-BC47-AEAC-C1DDBA2E22B4}" name="Übergruppe" dataDxfId="2"/>
@@ -521,19 +546,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56C71782-A243-C94F-93E9-956229F011F4}">
-  <dimension ref="A1:H12"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="114" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E7" sqref="E7"/>
+      <pane ySplit="4" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="20.1640625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="9.5" style="1" customWidth="1"/>
+    <col min="2" max="2" width="7.5" style="1" customWidth="1"/>
     <col min="3" max="3" width="49.1640625" customWidth="1"/>
-    <col min="5" max="5" width="50.33203125" customWidth="1"/>
+    <col min="5" max="5" width="71" customWidth="1"/>
     <col min="6" max="6" width="30.33203125" customWidth="1"/>
     <col min="7" max="7" width="11.83203125" customWidth="1"/>
     <col min="8" max="8" width="10.83203125" style="5"/>
@@ -549,7 +574,7 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="25" x14ac:dyDescent="0.2">
@@ -557,7 +582,7 @@
         <v>5</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C4" t="s">
         <v>0</v>
@@ -569,7 +594,7 @@
         <v>2</v>
       </c>
       <c r="F4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G4" t="s">
         <v>3</v>
@@ -578,24 +603,24 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B5" s="1">
         <v>1</v>
       </c>
       <c r="C5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" t="s">
+        <v>19</v>
+      </c>
+      <c r="H5" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="D5" t="s">
-        <v>21</v>
-      </c>
-      <c r="H5" s="5" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="68" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>6</v>
       </c>
@@ -603,7 +628,13 @@
         <v>1</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>11</v>
+        <v>24</v>
+      </c>
+      <c r="D6" t="s">
+        <v>31</v>
+      </c>
+      <c r="G6" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="34" x14ac:dyDescent="0.2">
@@ -614,24 +645,27 @@
         <v>1</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="102" x14ac:dyDescent="0.2">
+        <v>25</v>
+      </c>
+      <c r="D7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B8" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
+      </c>
+      <c r="D8" t="s">
+        <v>19</v>
+      </c>
+      <c r="E8" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="68" x14ac:dyDescent="0.2">
@@ -639,35 +673,32 @@
         <v>7</v>
       </c>
       <c r="B9" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A10" s="1" t="s">
+      <c r="D9" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="85" x14ac:dyDescent="0.2">
+      <c r="C10" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="1">
-        <v>2.5</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" ht="85" x14ac:dyDescent="0.2">
-      <c r="A11" s="1" t="s">
-        <v>19</v>
-      </c>
       <c r="B11" s="1">
-        <v>2.5</v>
+        <v>1.5</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="34" x14ac:dyDescent="0.2">
@@ -675,10 +706,41 @@
         <v>7</v>
       </c>
       <c r="B12" s="1">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="102" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B13" s="1">
+        <v>2</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="85" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>

--- a/gym_pybullet_drones/Aufgabenverteilung_F&E-Drohenrennen.xlsx
+++ b/gym_pybullet_drones/Aufgabenverteilung_F&E-Drohenrennen.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="37">
   <si>
     <t xml:space="preserve">Aufgabenübersicht F&amp;E Drohnenrennen WS24/25</t>
   </si>
@@ -89,6 +89,9 @@
   </si>
   <si>
     <t xml:space="preserve">mit der anderen Gruppe abstimmen und auch Aufbau der Umgebungen planen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jap</t>
   </si>
   <si>
     <t xml:space="preserve">RL</t>
@@ -286,8 +289,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabelle1" displayName="Tabelle1" ref="A4:H16" headerRowCount="1" totalsRowCount="0" totalsRowShown="0">
-  <autoFilter ref="A4:H16">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabelle1" displayName="Tabelle1" ref="A4:H17" headerRowCount="1" totalsRowCount="0" totalsRowShown="0">
+  <autoFilter ref="A4:H17">
     <filterColumn colId="7">
       <filters blank="1"/>
     </filterColumn>
@@ -310,15 +313,15 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H16"/>
+  <dimension ref="A1:H17"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="114" zoomScaleNormal="114" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="E11" activeCellId="0" sqref="E11"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="4" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
+      <selection pane="topLeft" activeCell="E1" activeCellId="0" sqref="E1"/>
+      <selection pane="bottomLeft" activeCell="E16" activeCellId="0" sqref="E16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.5" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.50390625" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="20.16"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="7.5"/>
@@ -446,57 +449,52 @@
       <c r="E9" s="0" t="s">
         <v>22</v>
       </c>
+      <c r="H9" s="2" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="10" customFormat="false" ht="67.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B10" s="1" t="n">
         <v>1</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="67.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B11" s="1" t="n">
         <v>1</v>
       </c>
       <c r="C11" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" s="0" t="s">
         <v>26</v>
       </c>
-      <c r="D11" s="0" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="84.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C12" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="E12" s="1" t="s">
+    </row>
+    <row r="12" customFormat="false" ht="67.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C12" s="1"/>
+    </row>
+    <row r="13" customFormat="false" ht="84.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C13" s="1" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="13" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B13" s="1" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="C13" s="1" t="s">
+      <c r="E13" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="33.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B14" s="1" t="n">
         <v>1.5</v>
@@ -505,35 +503,49 @@
         <v>30</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="102" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="33.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="B15" s="1" t="n">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="E15" s="1" t="s">
+    </row>
+    <row r="16" customFormat="false" ht="102" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B16" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="C16" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="F15" s="1" t="s">
+      <c r="D16" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="E16" s="1" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="16" customFormat="false" ht="84.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="1" t="s">
+      <c r="F16" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="84.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B16" s="1" t="n">
+      <c r="B17" s="1" t="n">
         <v>2.5</v>
       </c>
-      <c r="C16" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E16" s="1" t="s">
+      <c r="C17" s="1" t="s">
         <v>35</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>36</v>
       </c>
     </row>
   </sheetData>
